--- a/biology/Médecine/L'Honneur_de_vivre/L'Honneur_de_vivre.xlsx
+++ b/biology/Médecine/L'Honneur_de_vivre/L'Honneur_de_vivre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%27Honneur_de_vivre</t>
+          <t>L'Honneur_de_vivre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Honneur de vivre est un ouvrage autobiographique du professeur de médecine et pionnier de la pédiatrie Robert Debré (1882-1978), rédigé entre 1972 et 1974, année de sa parution aux éditions Stock alors que l'auteur a plus de 90 ans. Il s'agit d'un témoignage direct non seulement sur le monde hospitalo-universitaire, mais plus généralement sur l'histoire de la France des trois premiers quarts du XXe siècle, comportant des portraits de nombreuses figures intellectuelles des milieux littéraires, politiques et médicaux côtoyées par l'auteur. Selon le biologiste Étienne Wolff, alors membre de l'Académie française, « cette suite d'événements et de cas de conscience [...] est [...] d'une lecture fascinante. Un style alerte et concis, une émotion contenue, une tendresse admirative ou indulgente à l'égard des hommes contribuent à l'attrait de cette chronique d'une vie bien remplie ».
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%27Honneur_de_vivre</t>
+          <t>L'Honneur_de_vivre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Chapitres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>S’ouvrant sur un bref préambule de deux pages, l'ouvrage est divisé en quarante et un chapitres thématiques ne respectant pas toujours strictement l'ordre chronologique[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>S’ouvrant sur un bref préambule de deux pages, l'ouvrage est divisé en quarante et un chapitres thématiques ne respectant pas toujours strictement l'ordre chronologique :
 Un petit monde d'autrefois[N 1]
 Enfance heureuse. Patrie et religion
 Horizon plus large : le lycée, l'affaire Dreyfus
@@ -564,7 +578,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%27Honneur_de_vivre</t>
+          <t>L'Honneur_de_vivre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -582,21 +596,126 @@
           <t>Principales personnalités mentionnées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>L'Honneur de vivre se caractérise par l'abondance des références à des personnalités souvent prestigieuses et influentes rencontrées par l'auteur qui signale parfois avoir avec elles des liens de parenté ou d'amitié, leur consacrant alors des passages plus ou moins longs, de la simple anecdote à des développements plus élaborés. « Je n'ai pu parcourir le chemin de ma vie que parce que je fus éclairé par des êtres rayonnants », déclare-t-il en conclusion de son préambule. Cependant, jusqu'au début des années 2020, aucune des éditions de l'ouvrage ne comportait d'index des noms propres. 
-Écrivains
-Émile Zola
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Honneur de vivre se caractérise par l'abondance des références à des personnalités souvent prestigieuses et influentes rencontrées par l'auteur qui signale parfois avoir avec elles des liens de parenté ou d'amitié, leur consacrant alors des passages plus ou moins longs, de la simple anecdote à des développements plus élaborés. « Je n'ai pu parcourir le chemin de ma vie que parce que je fus éclairé par des êtres rayonnants », déclare-t-il en conclusion de son préambule. Cependant, jusqu'au début des années 2020, aucune des éditions de l'ouvrage ne comportait d'index des noms propres. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>L'Honneur_de_vivre</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%27Honneur_de_vivre</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Principales personnalités mentionnées</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Écrivains</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Émile Zola
 Charles Péguy
 Lucien Herr
 Jacques Maritain
 Paul Valéry
-Arthur Mugnier
-Artistes
-Francis Poulenc
-Édouard Debat-Ponsan
-Scientifiques
-Jacques Hadamard
+Arthur Mugnier</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>L'Honneur_de_vivre</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%27Honneur_de_vivre</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Principales personnalités mentionnées</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Artistes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Francis Poulenc
+Édouard Debat-Ponsan</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>L'Honneur_de_vivre</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%27Honneur_de_vivre</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Principales personnalités mentionnées</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Scientifiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Jacques Hadamard
 Jeanne Debat-Ponsan
 Gaston Ramon
 Henri Mondor
@@ -605,40 +724,76 @@
 Adolphe Landry
 Maurice Nicolle
 Ludwik Rajchman
-Alfred Sauvy
-Personnalités politiques
-Jean Jaurès
+Alfred Sauvy</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>L'Honneur_de_vivre</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%27Honneur_de_vivre</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Principales personnalités mentionnées</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Personnalités politiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Jean Jaurès
 Michel Debré
 Élisabeth de La Panouse / Dexia
 Charles de Gaulle</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>L%27Honneur_de_vivre</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>L'Honneur_de_vivre</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/L%27Honneur_de_vivre</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Éditions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>L'ouvrage est réédité en 1996 avec une préface d'un des petits-fils de l'auteur, Bernard Debré ainsi qu'un addendum compilant une série de textes préparatoires à un projet de réforme hospitalière et de politique de santé publique : 
 Robert Debré (préf. Bernard Debré), L'Honneur de vivre : mémoires, Paris, Hermann, coll. « Savoir : cultures », 1996, 500 p. (ISBN 2 7056 6310 X). Suivi d'un appendice composé d'extraits de textes rédigés pendant l'Occupation par Robert Debré et groupés par lui-même sous le titre : Médecine, Santé publique, Population</t>
